--- a/result/problem_1/erf/result_3.xlsx
+++ b/result/problem_1/erf/result_3.xlsx
@@ -476,13 +476,13 @@
         <v>1393</v>
       </c>
       <c r="D2" t="n">
-        <v>5571</v>
+        <v>1988</v>
       </c>
       <c r="E2" t="n">
         <v>4500</v>
       </c>
       <c r="F2" t="n">
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>595</v>
@@ -496,16 +496,16 @@
         <v>11371807</v>
       </c>
       <c r="C3" t="n">
-        <v>1512</v>
+        <v>1988</v>
       </c>
       <c r="D3" t="n">
-        <v>5690</v>
+        <v>2583</v>
       </c>
       <c r="E3" t="n">
         <v>4500</v>
       </c>
       <c r="F3" t="n">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>595</v>
@@ -519,16 +519,16 @@
         <v>11371808</v>
       </c>
       <c r="C4" t="n">
-        <v>2226</v>
+        <v>5558</v>
       </c>
       <c r="D4" t="n">
-        <v>5452</v>
+        <v>6058</v>
       </c>
       <c r="E4" t="n">
         <v>4500</v>
       </c>
       <c r="F4" t="n">
-        <v>952</v>
+        <v>1558</v>
       </c>
       <c r="G4" t="n">
         <v>500</v>
@@ -542,16 +542,16 @@
         <v>11371809</v>
       </c>
       <c r="C5" t="n">
-        <v>1631</v>
+        <v>2583</v>
       </c>
       <c r="D5" t="n">
-        <v>5809</v>
+        <v>3178</v>
       </c>
       <c r="E5" t="n">
         <v>4500</v>
       </c>
       <c r="F5" t="n">
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>595</v>
@@ -568,13 +568,13 @@
         <v>6285</v>
       </c>
       <c r="D6" t="n">
-        <v>8802</v>
+        <v>7160</v>
       </c>
       <c r="E6" t="n">
         <v>6750</v>
       </c>
       <c r="F6" t="n">
-        <v>2052</v>
+        <v>410</v>
       </c>
       <c r="G6" t="n">
         <v>875</v>
@@ -588,16 +588,16 @@
         <v>11373204</v>
       </c>
       <c r="C7" t="n">
-        <v>24103</v>
+        <v>25207</v>
       </c>
       <c r="D7" t="n">
-        <v>26754</v>
+        <v>25802</v>
       </c>
       <c r="E7" t="n">
         <v>18000</v>
       </c>
       <c r="F7" t="n">
-        <v>8754</v>
+        <v>7802</v>
       </c>
       <c r="G7" t="n">
         <v>595</v>
@@ -611,16 +611,16 @@
         <v>11375177</v>
       </c>
       <c r="C8" t="n">
-        <v>9420</v>
+        <v>10522</v>
       </c>
       <c r="D8" t="n">
-        <v>12431</v>
+        <v>11117</v>
       </c>
       <c r="E8" t="n">
         <v>9000</v>
       </c>
       <c r="F8" t="n">
-        <v>3431</v>
+        <v>2117</v>
       </c>
       <c r="G8" t="n">
         <v>595</v>
@@ -634,16 +634,16 @@
         <v>11381562</v>
       </c>
       <c r="C9" t="n">
-        <v>5100</v>
+        <v>6058</v>
       </c>
       <c r="D9" t="n">
-        <v>5327</v>
+        <v>6285</v>
       </c>
       <c r="E9" t="n">
         <v>4500</v>
       </c>
       <c r="F9" t="n">
-        <v>827</v>
+        <v>1785</v>
       </c>
       <c r="G9" t="n">
         <v>227</v>
@@ -683,13 +683,13 @@
         <v>12902</v>
       </c>
       <c r="D11" t="n">
-        <v>17432</v>
+        <v>13586</v>
       </c>
       <c r="E11" t="n">
         <v>11250</v>
       </c>
       <c r="F11" t="n">
-        <v>6182</v>
+        <v>2336</v>
       </c>
       <c r="G11" t="n">
         <v>684</v>
@@ -703,16 +703,16 @@
         <v>11415067</v>
       </c>
       <c r="C12" t="n">
-        <v>13016</v>
+        <v>13586</v>
       </c>
       <c r="D12" t="n">
-        <v>16723</v>
+        <v>14181</v>
       </c>
       <c r="E12" t="n">
         <v>11250</v>
       </c>
       <c r="F12" t="n">
-        <v>5473</v>
+        <v>2931</v>
       </c>
       <c r="G12" t="n">
         <v>595</v>
@@ -726,16 +726,16 @@
         <v>11415083</v>
       </c>
       <c r="C13" t="n">
-        <v>13135</v>
+        <v>14181</v>
       </c>
       <c r="D13" t="n">
-        <v>16842</v>
+        <v>14776</v>
       </c>
       <c r="E13" t="n">
         <v>11250</v>
       </c>
       <c r="F13" t="n">
-        <v>5592</v>
+        <v>3526</v>
       </c>
       <c r="G13" t="n">
         <v>595</v>
@@ -749,7 +749,7 @@
         <v>11415085</v>
       </c>
       <c r="C14" t="n">
-        <v>14672</v>
+        <v>17156</v>
       </c>
       <c r="D14" t="n">
         <v>17524</v>
@@ -772,16 +772,16 @@
         <v>11415087</v>
       </c>
       <c r="C15" t="n">
-        <v>13254</v>
+        <v>14776</v>
       </c>
       <c r="D15" t="n">
-        <v>16961</v>
+        <v>15371</v>
       </c>
       <c r="E15" t="n">
         <v>11250</v>
       </c>
       <c r="F15" t="n">
-        <v>5711</v>
+        <v>4121</v>
       </c>
       <c r="G15" t="n">
         <v>595</v>
@@ -798,13 +798,13 @@
         <v>9040</v>
       </c>
       <c r="D16" t="n">
-        <v>12312</v>
+        <v>9838</v>
       </c>
       <c r="E16" t="n">
         <v>9000</v>
       </c>
       <c r="F16" t="n">
-        <v>3312</v>
+        <v>838</v>
       </c>
       <c r="G16" t="n">
         <v>798</v>
@@ -818,16 +818,16 @@
         <v>11417581</v>
       </c>
       <c r="C17" t="n">
-        <v>1750</v>
+        <v>3178</v>
       </c>
       <c r="D17" t="n">
-        <v>5928</v>
+        <v>3773</v>
       </c>
       <c r="E17" t="n">
         <v>4500</v>
       </c>
       <c r="F17" t="n">
-        <v>1428</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>595</v>
@@ -841,16 +841,16 @@
         <v>11424557</v>
       </c>
       <c r="C18" t="n">
-        <v>9173</v>
+        <v>9838</v>
       </c>
       <c r="D18" t="n">
-        <v>12902</v>
+        <v>10522</v>
       </c>
       <c r="E18" t="n">
         <v>9000</v>
       </c>
       <c r="F18" t="n">
-        <v>3902</v>
+        <v>1522</v>
       </c>
       <c r="G18" t="n">
         <v>684</v>
@@ -864,16 +864,16 @@
         <v>11424558</v>
       </c>
       <c r="C19" t="n">
-        <v>9539</v>
+        <v>11117</v>
       </c>
       <c r="D19" t="n">
-        <v>12550</v>
+        <v>11712</v>
       </c>
       <c r="E19" t="n">
         <v>9000</v>
       </c>
       <c r="F19" t="n">
-        <v>3550</v>
+        <v>2712</v>
       </c>
       <c r="G19" t="n">
         <v>595</v>
@@ -887,16 +887,16 @@
         <v>11424559</v>
       </c>
       <c r="C20" t="n">
-        <v>9658</v>
+        <v>11712</v>
       </c>
       <c r="D20" t="n">
-        <v>12669</v>
+        <v>12307</v>
       </c>
       <c r="E20" t="n">
         <v>9000</v>
       </c>
       <c r="F20" t="n">
-        <v>3669</v>
+        <v>3307</v>
       </c>
       <c r="G20" t="n">
         <v>595</v>
@@ -910,16 +910,16 @@
         <v>11426000</v>
       </c>
       <c r="C21" t="n">
-        <v>18194</v>
+        <v>19810</v>
       </c>
       <c r="D21" t="n">
-        <v>23239</v>
+        <v>20405</v>
       </c>
       <c r="E21" t="n">
         <v>13500</v>
       </c>
       <c r="F21" t="n">
-        <v>9739</v>
+        <v>6905</v>
       </c>
       <c r="G21" t="n">
         <v>595</v>
@@ -933,16 +933,16 @@
         <v>11426006</v>
       </c>
       <c r="C22" t="n">
-        <v>18313</v>
+        <v>20405</v>
       </c>
       <c r="D22" t="n">
-        <v>23358</v>
+        <v>21000</v>
       </c>
       <c r="E22" t="n">
         <v>13500</v>
       </c>
       <c r="F22" t="n">
-        <v>9858</v>
+        <v>7500</v>
       </c>
       <c r="G22" t="n">
         <v>595</v>
@@ -956,16 +956,16 @@
         <v>11426008</v>
       </c>
       <c r="C23" t="n">
-        <v>18432</v>
+        <v>21000</v>
       </c>
       <c r="D23" t="n">
-        <v>23477</v>
+        <v>21595</v>
       </c>
       <c r="E23" t="n">
         <v>13500</v>
       </c>
       <c r="F23" t="n">
-        <v>9977</v>
+        <v>8095</v>
       </c>
       <c r="G23" t="n">
         <v>595</v>
@@ -979,16 +979,16 @@
         <v>11431082</v>
       </c>
       <c r="C24" t="n">
-        <v>19788</v>
+        <v>22785</v>
       </c>
       <c r="D24" t="n">
-        <v>22561</v>
+        <v>23250</v>
       </c>
       <c r="E24" t="n">
         <v>13500</v>
       </c>
       <c r="F24" t="n">
-        <v>9061</v>
+        <v>9750</v>
       </c>
       <c r="G24" t="n">
         <v>465</v>
@@ -1002,16 +1002,16 @@
         <v>11431085</v>
       </c>
       <c r="C25" t="n">
-        <v>19943</v>
+        <v>23250</v>
       </c>
       <c r="D25" t="n">
-        <v>22716</v>
+        <v>23715</v>
       </c>
       <c r="E25" t="n">
         <v>13500</v>
       </c>
       <c r="F25" t="n">
-        <v>9216</v>
+        <v>10215</v>
       </c>
       <c r="G25" t="n">
         <v>465</v>
@@ -1028,13 +1028,13 @@
         <v>17524</v>
       </c>
       <c r="D26" t="n">
-        <v>22987</v>
+        <v>18322</v>
       </c>
       <c r="E26" t="n">
         <v>13500</v>
       </c>
       <c r="F26" t="n">
-        <v>9487</v>
+        <v>4822</v>
       </c>
       <c r="G26" t="n">
         <v>798</v>
@@ -1048,16 +1048,16 @@
         <v>11431093</v>
       </c>
       <c r="C27" t="n">
-        <v>17657</v>
+        <v>18322</v>
       </c>
       <c r="D27" t="n">
-        <v>23120</v>
+        <v>19120</v>
       </c>
       <c r="E27" t="n">
         <v>13500</v>
       </c>
       <c r="F27" t="n">
-        <v>9620</v>
+        <v>5620</v>
       </c>
       <c r="G27" t="n">
         <v>798</v>
@@ -1071,16 +1071,16 @@
         <v>11464103</v>
       </c>
       <c r="C28" t="n">
-        <v>1869</v>
+        <v>3773</v>
       </c>
       <c r="D28" t="n">
-        <v>6047</v>
+        <v>4368</v>
       </c>
       <c r="E28" t="n">
         <v>4500</v>
       </c>
       <c r="F28" t="n">
-        <v>1547</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>595</v>
@@ -1094,16 +1094,16 @@
         <v>11464112</v>
       </c>
       <c r="C29" t="n">
-        <v>1988</v>
+        <v>4368</v>
       </c>
       <c r="D29" t="n">
-        <v>6166</v>
+        <v>4963</v>
       </c>
       <c r="E29" t="n">
         <v>4500</v>
       </c>
       <c r="F29" t="n">
-        <v>1666</v>
+        <v>463</v>
       </c>
       <c r="G29" t="n">
         <v>595</v>
@@ -1117,16 +1117,16 @@
         <v>11466990</v>
       </c>
       <c r="C30" t="n">
-        <v>2107</v>
+        <v>4963</v>
       </c>
       <c r="D30" t="n">
-        <v>6285</v>
+        <v>5558</v>
       </c>
       <c r="E30" t="n">
         <v>4500</v>
       </c>
       <c r="F30" t="n">
-        <v>1785</v>
+        <v>1058</v>
       </c>
       <c r="G30" t="n">
         <v>595</v>
@@ -1140,16 +1140,16 @@
         <v>11467126</v>
       </c>
       <c r="C31" t="n">
-        <v>6798</v>
+        <v>7850</v>
       </c>
       <c r="D31" t="n">
-        <v>8921</v>
+        <v>8445</v>
       </c>
       <c r="E31" t="n">
         <v>6750</v>
       </c>
       <c r="F31" t="n">
-        <v>2171</v>
+        <v>1695</v>
       </c>
       <c r="G31" t="n">
         <v>595</v>
@@ -1163,7 +1163,7 @@
         <v>11467129</v>
       </c>
       <c r="C32" t="n">
-        <v>6917</v>
+        <v>8445</v>
       </c>
       <c r="D32" t="n">
         <v>9040</v>
@@ -1186,16 +1186,16 @@
         <v>11479603</v>
       </c>
       <c r="C33" t="n">
-        <v>6535</v>
+        <v>7160</v>
       </c>
       <c r="D33" t="n">
-        <v>8677</v>
+        <v>7850</v>
       </c>
       <c r="E33" t="n">
         <v>6750</v>
       </c>
       <c r="F33" t="n">
-        <v>1927</v>
+        <v>1100</v>
       </c>
       <c r="G33" t="n">
         <v>690</v>
@@ -1209,16 +1209,16 @@
         <v>11481472</v>
       </c>
       <c r="C34" t="n">
-        <v>18551</v>
+        <v>21595</v>
       </c>
       <c r="D34" t="n">
-        <v>23596</v>
+        <v>22190</v>
       </c>
       <c r="E34" t="n">
         <v>13500</v>
       </c>
       <c r="F34" t="n">
-        <v>10096</v>
+        <v>8690</v>
       </c>
       <c r="G34" t="n">
         <v>595</v>
@@ -1232,16 +1232,16 @@
         <v>11481473</v>
       </c>
       <c r="C35" t="n">
-        <v>18670</v>
+        <v>22190</v>
       </c>
       <c r="D35" t="n">
-        <v>23715</v>
+        <v>22785</v>
       </c>
       <c r="E35" t="n">
         <v>13500</v>
       </c>
       <c r="F35" t="n">
-        <v>10215</v>
+        <v>9285</v>
       </c>
       <c r="G35" t="n">
         <v>595</v>
@@ -1278,16 +1278,16 @@
         <v>11481492</v>
       </c>
       <c r="C37" t="n">
-        <v>17790</v>
+        <v>19120</v>
       </c>
       <c r="D37" t="n">
-        <v>22854</v>
+        <v>19810</v>
       </c>
       <c r="E37" t="n">
         <v>13500</v>
       </c>
       <c r="F37" t="n">
-        <v>9354</v>
+        <v>6310</v>
       </c>
       <c r="G37" t="n">
         <v>690</v>
@@ -1324,16 +1324,16 @@
         <v>11482913</v>
       </c>
       <c r="C39" t="n">
-        <v>9777</v>
+        <v>12307</v>
       </c>
       <c r="D39" t="n">
-        <v>12788</v>
+        <v>12902</v>
       </c>
       <c r="E39" t="n">
         <v>9000</v>
       </c>
       <c r="F39" t="n">
-        <v>3788</v>
+        <v>3902</v>
       </c>
       <c r="G39" t="n">
         <v>595</v>
@@ -1347,16 +1347,16 @@
         <v>11485052</v>
       </c>
       <c r="C40" t="n">
-        <v>24222</v>
+        <v>25802</v>
       </c>
       <c r="D40" t="n">
-        <v>26873</v>
+        <v>26397</v>
       </c>
       <c r="E40" t="n">
         <v>18000</v>
       </c>
       <c r="F40" t="n">
-        <v>8873</v>
+        <v>8397</v>
       </c>
       <c r="G40" t="n">
         <v>595</v>
@@ -1370,7 +1370,7 @@
         <v>11485053</v>
       </c>
       <c r="C41" t="n">
-        <v>24341</v>
+        <v>26397</v>
       </c>
       <c r="D41" t="n">
         <v>26992</v>
@@ -1396,13 +1396,13 @@
         <v>23827</v>
       </c>
       <c r="D42" t="n">
-        <v>26497</v>
+        <v>24517</v>
       </c>
       <c r="E42" t="n">
         <v>18000</v>
       </c>
       <c r="F42" t="n">
-        <v>8497</v>
+        <v>6517</v>
       </c>
       <c r="G42" t="n">
         <v>690</v>
@@ -1416,16 +1416,16 @@
         <v>11485067</v>
       </c>
       <c r="C43" t="n">
-        <v>23965</v>
+        <v>24517</v>
       </c>
       <c r="D43" t="n">
-        <v>26635</v>
+        <v>25207</v>
       </c>
       <c r="E43" t="n">
         <v>18000</v>
       </c>
       <c r="F43" t="n">
-        <v>8635</v>
+        <v>7207</v>
       </c>
       <c r="G43" t="n">
         <v>690</v>
@@ -1439,16 +1439,16 @@
         <v>113751778</v>
       </c>
       <c r="C44" t="n">
-        <v>13373</v>
+        <v>15371</v>
       </c>
       <c r="D44" t="n">
-        <v>17080</v>
+        <v>15966</v>
       </c>
       <c r="E44" t="n">
         <v>11250</v>
       </c>
       <c r="F44" t="n">
-        <v>5830</v>
+        <v>4716</v>
       </c>
       <c r="G44" t="n">
         <v>595</v>
@@ -1462,16 +1462,16 @@
         <v>113751779</v>
       </c>
       <c r="C45" t="n">
-        <v>13492</v>
+        <v>15966</v>
       </c>
       <c r="D45" t="n">
-        <v>17199</v>
+        <v>16561</v>
       </c>
       <c r="E45" t="n">
         <v>11250</v>
       </c>
       <c r="F45" t="n">
-        <v>5949</v>
+        <v>5311</v>
       </c>
       <c r="G45" t="n">
         <v>595</v>
@@ -1485,16 +1485,16 @@
         <v>113751780</v>
       </c>
       <c r="C46" t="n">
-        <v>13611</v>
+        <v>16561</v>
       </c>
       <c r="D46" t="n">
-        <v>17318</v>
+        <v>17156</v>
       </c>
       <c r="E46" t="n">
         <v>11250</v>
       </c>
       <c r="F46" t="n">
-        <v>6068</v>
+        <v>5906</v>
       </c>
       <c r="G46" t="n">
         <v>595</v>
